--- a/article_references/heat_and_mass_transfer/термогидродинамическое_моделирование/ссылки.xlsx
+++ b/article_references/heat_and_mass_transfer/термогидродинамическое_моделирование/ссылки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usr\repo\PhD_monorepo\PhD_scriptorium\article_references\heat_and_mass_transfer\термогидродинамическое_моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3379E3FE-5263-4D39-8F38-75649013A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236620BE-CEFD-4DD8-90B2-C91E19BD2DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>brief</t>
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>Проблема выпадения асфальтенов из пластового флюида при закачке CO2, изменение интенсивности процесса при смене температуры нагнетания и добавления оксида железа</t>
@@ -191,9 +188,6 @@
     <t xml:space="preserve">Методика для учета падения продуктивности скважины от образования гидратов (корреляции без фактического учета в симуляторе) </t>
   </si>
   <si>
-    <t>loaded</t>
-  </si>
-  <si>
     <t>https://cyberleninka.ru/article/n/metody-rascheta-teplofizicheskih-svoystv-nefti-gazovyh-kondensatov-i-ih-fraktsiy?ysclid=m4ayb3ltzi544133942</t>
   </si>
   <si>
@@ -223,6 +217,81 @@
   </si>
   <si>
     <t>УДК 622.279.23</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\Prediction_of_asphaltene_precipitation_risk_al-safran2018.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\выпадение_асфальтенов_при_закачке_CO2_Rafat_Parsaei.pdf</t>
+  </si>
+  <si>
+    <t>paper text</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\development_of_a_thermodynamic_model_ch4_ch2_zhu2005.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\Development_of_Experimental_Techniques_Equipment_and_Thermodynamic_Modelling_chapoy2011.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\Thermodynamic_Modeling_of_Naphthenate_Formation_and_Related_pH_Change_Experiments_mohammed2009.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\thermodynamic_modellin_of_naphthenate_mohammed2008.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\extraction_of_heavy_oil_das1995.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\development_of_effective_numerical_model_for_heavy_klemin2008.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\enhanced_oil_recovery_in_post_chops_cold_heavy_coskuner2020.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\phased_heating_and_solvent_injection_to_enhance_recovery_of_heavy_oil_zhu2016.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\a-new-mathematical-model-of-solvent--sagd-process--importance-of-2018.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\vgn_4-49-2021-075-084.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\Шарипов_методика_термогидрадинамическогомоделирования.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\Evaluation_of_Diffusion_of_Light_Hydrocarbon_Solvents_in_Bitumen_diedro2015.pdf</t>
+  </si>
+  <si>
+    <t>моделирование_течения_пластовых_флюидов\Non_Equilibrium_Reservoir_Simulation_of_Solvent-Steam_Processes,_ehparvin2017.pdf</t>
+  </si>
+  <si>
+    <t>моделирование_течения_пластовых_флюидов\Model_for_Thermal-Solvent_Assisted_Gravity_Drainage_Recovery_Processes.pdf</t>
+  </si>
+  <si>
+    <t>моделирование_течения_пластовых_флюидов\New_Thermal-Solvent_Assisted_Gravity_Drainage_Recovery_Processkhaledi2018.pdf</t>
+  </si>
+  <si>
+    <t>повышение_отдачи_битумных_нефтей\A_Novel_Solvent_Injection_Technique_for_Enhanced_Heavy_Oil_Recovery_jiang2013.pdf</t>
+  </si>
+  <si>
+    <t>моделирование_течения_пластовых_флюидов\Revisiting_Kelvin_Equation_for_Accurate_Modeling_of_Pore_Scale_al-kindi2019.pdf</t>
+  </si>
+  <si>
+    <t>моделирование_течения_пластовых_флюидов\Solvent_Chamber_Development_in_3D_Model_Experiments_of_Solvent_Vapour_Extraction_Processes_SVX.pdf</t>
+  </si>
+  <si>
+    <t>гидраты_моделирование_температуры\metody_rascheta_teplofizicheskih_svoystv_nefti_gazovyh_kondensatov.pdf</t>
+  </si>
+  <si>
+    <t>Вестник_Тюмгу\2016_1_вестник_тюмгу_шабаров.pdf</t>
+  </si>
+  <si>
+    <t>стр12</t>
+  </si>
+  <si>
+    <t>Вестник_Тюмгу\deviationCompositionShabarov.pdf</t>
   </si>
 </sst>
 </file>
@@ -288,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,12 +380,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,9 +424,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -360,8 +439,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -644,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -655,6 +743,7 @@
     <col min="1" max="1" width="37.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.899999999999999" x14ac:dyDescent="0.65">
@@ -665,244 +754,301 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
+      <c r="C11" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
+      <c r="C14" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="12" t="s">
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="12" t="s">
+      <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
+      <c r="C26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="9" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -926,8 +1072,33 @@
     <hyperlink ref="B25" r:id="rId17" xr:uid="{B57DEB34-8217-4C40-92E2-067210764556}"/>
     <hyperlink ref="B26" r:id="rId18" xr:uid="{C52C6EC6-DA09-4755-9BC2-EE54EE6EDB55}"/>
     <hyperlink ref="B27" r:id="rId19" xr:uid="{03553F6A-FF67-4C16-B16E-71C4DF8AEB84}"/>
+    <hyperlink ref="B3" r:id="rId20" xr:uid="{BB83609B-22EE-4F6A-9F67-4D3AACCCC7E4}"/>
+    <hyperlink ref="C3" r:id="rId21" xr:uid="{93BFCD14-C20F-48D9-8B4A-CE96DFEA5EE4}"/>
+    <hyperlink ref="C2" r:id="rId22" xr:uid="{07304352-09EA-484D-88DF-71D09331309F}"/>
+    <hyperlink ref="C4" r:id="rId23" xr:uid="{CCD83735-A1BB-486B-8162-6E46AB038E49}"/>
+    <hyperlink ref="C6" r:id="rId24" xr:uid="{5CB7BB38-9BC5-46EA-9F21-3BD249CB8721}"/>
+    <hyperlink ref="C7" r:id="rId25" xr:uid="{4A95EDA3-B5E6-490B-86F2-5F53E4024167}"/>
+    <hyperlink ref="C8" r:id="rId26" xr:uid="{B8589812-6E8A-42B3-868E-4960FC4AC121}"/>
+    <hyperlink ref="C11" r:id="rId27" xr:uid="{8D1FBC0B-179C-435A-B0B3-A2C7EF1D2510}"/>
+    <hyperlink ref="C12" r:id="rId28" xr:uid="{27A39D2C-C298-414F-85A6-FED9DF57A85D}"/>
+    <hyperlink ref="C13" r:id="rId29" xr:uid="{EB84956E-37DE-44C0-A4F2-BFF8B5D3DA62}"/>
+    <hyperlink ref="C14" r:id="rId30" xr:uid="{982074FA-3B2B-4ADB-96A4-A19402174C63}"/>
+    <hyperlink ref="C15" r:id="rId31" xr:uid="{C346A334-31A9-401F-A9EC-A3E4DD3D0267}"/>
+    <hyperlink ref="C25" r:id="rId32" xr:uid="{B2A093A6-6CF6-4DF6-A965-951A1D53B70D}"/>
+    <hyperlink ref="C16" r:id="rId33" xr:uid="{BFF49C9B-5663-4242-88DB-B3777D7A9C85}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{13969106-920B-4F89-8DA1-3EEE50A7C3F9}"/>
+    <hyperlink ref="C19" r:id="rId35" xr:uid="{4B5E4E72-42F2-4C0A-97BB-893753503528}"/>
+    <hyperlink ref="C20" r:id="rId36" xr:uid="{733E8760-F92B-491B-8A10-52351B7902C9}"/>
+    <hyperlink ref="C21" r:id="rId37" xr:uid="{CD979DA4-6CB7-4837-A196-15FA3350FD71}"/>
+    <hyperlink ref="C22" r:id="rId38" xr:uid="{81878FEC-3885-408C-9D07-7C50D545E7B5}"/>
+    <hyperlink ref="C23" r:id="rId39" xr:uid="{EA6C1884-8C97-471F-AA10-F664A5846306}"/>
+    <hyperlink ref="C24" r:id="rId40" xr:uid="{7304805F-8123-479E-83C6-FC22A905C1EC}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{7D0EEF0D-FE60-46E9-B7B3-8E3CEA8F50DA}"/>
+    <hyperlink ref="C26" r:id="rId42" xr:uid="{9DCBA301-6ED8-4FCA-A549-726AB7E4A3F6}"/>
+    <hyperlink ref="C27" r:id="rId43" xr:uid="{797D4670-D733-487A-AC90-CE2497A7209A}"/>
+    <hyperlink ref="C28" r:id="rId44" xr:uid="{DA141E10-7532-4117-8D3A-FA1B657413C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>